--- a/subscriptions.xlsx
+++ b/subscriptions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hashmilhan/Developer/subscription-notification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458D7109-E1AF-D742-B076-64F4BBAEBAA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E15CF5C-1C9F-304D-8BB3-AE49B7BFE0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" xr2:uid="{178403A2-B36F-A743-9837-73DB81AA4E7D}"/>
   </bookViews>

--- a/subscriptions.xlsx
+++ b/subscriptions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hashmilhan/Developer/subscription-notification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E15CF5C-1C9F-304D-8BB3-AE49B7BFE0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D24A56-CCCD-664E-8996-8A34A405FB63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" xr2:uid="{178403A2-B36F-A743-9837-73DB81AA4E7D}"/>
   </bookViews>
@@ -409,7 +409,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -427,7 +427,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>44965</v>
+        <v>44993</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -435,7 +435,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>44972</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -443,7 +443,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>44973</v>
+        <v>45001</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -451,7 +451,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>44972</v>
+        <v>45000</v>
       </c>
     </row>
   </sheetData>

--- a/subscriptions.xlsx
+++ b/subscriptions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hashmilhan/Developer/subscription-notification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D24A56-CCCD-664E-8996-8A34A405FB63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08813CB2-E170-4442-9A7C-20CCC832FC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" xr2:uid="{178403A2-B36F-A743-9837-73DB81AA4E7D}"/>
   </bookViews>
@@ -36,24 +36,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>disney plus</t>
-  </si>
-  <si>
-    <t>netflix</t>
-  </si>
-  <si>
-    <t>discovery</t>
-  </si>
-  <si>
-    <t>apple tv</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Product</t>
   </si>
   <si>
     <t>Expiry Date</t>
+  </si>
+  <si>
+    <t>Plex</t>
+  </si>
+  <si>
+    <t>Apple TV</t>
+  </si>
+  <si>
+    <t>Discovery</t>
+  </si>
+  <si>
+    <t>Netflix</t>
+  </si>
+  <si>
+    <t>Disney Plus</t>
   </si>
 </sst>
 </file>
@@ -406,44 +409,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3838BF-50D4-E344-BBCD-232EAFCCA517}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1">
-        <v>44993</v>
+        <v>44965</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1">
-        <v>45000</v>
+        <v>44972</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>45001</v>
+        <v>44973</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -451,7 +454,15 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>45000</v>
+        <v>44972</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>44966</v>
       </c>
     </row>
   </sheetData>
